--- a/TestData/Stores.xlsx
+++ b/TestData/Stores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abgoyal\Downloads\PetStoreTesting\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E70F88-7094-4ABB-A190-DE5E34C6DD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839337F6-D983-4406-A93A-653220B9F3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>action</t>
   </si>
@@ -106,13 +106,25 @@
   </si>
   <si>
     <t>approved</t>
+  </si>
+  <si>
+    <t>get_order_test</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>delete_order_test</t>
+  </si>
+  <si>
+    <t>get_inventory_test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +142,12 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFFC66D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,13 +171,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,13 +463,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7491298-5B73-4D6D-BCC7-93995629F5BD}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
@@ -459,7 +481,7 @@
     <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -508,7 +530,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="2" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -532,7 +554,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="2" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -555,7 +577,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="2" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -578,7 +600,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="2" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -604,7 +626,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="2" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -630,7 +652,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="2" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -656,7 +678,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="2" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -682,7 +704,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="2" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -709,7 +731,7 @@
       </c>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="2" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -735,7 +757,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="2" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -761,7 +783,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="2" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -787,7 +809,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="2" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -813,7 +835,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="2" customFormat="1">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,7 +861,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="2" customFormat="1">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -865,7 +887,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="2" customFormat="1">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,7 +913,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -917,7 +939,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="2" customFormat="1">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,7 +965,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -967,7 +989,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="2" customFormat="1">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,7 +1013,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1015,7 +1037,82 @@
         <v>200</v>
       </c>
     </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>789</v>
+      </c>
+      <c r="H23" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>789</v>
+      </c>
+      <c r="H26" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>